--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T21:07:13-05:00</t>
+    <t>2022-06-30T09:28:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T09:28:59-05:00</t>
+    <t>2022-06-30T15:55:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T15:55:55-05:00</t>
+    <t>2022-07-26T16:10:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2287,14 +2287,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.57421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="142.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2307,26 +2307,26 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.92578125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="242.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.8828125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="625">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T10:15:20-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,10 +265,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -288,113 +284,113 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
   </si>
   <si>
     <t>Observation.meta.lastUpdated</t>
@@ -2550,19 +2546,19 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2573,7 +2569,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2584,28 +2580,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2655,13 +2651,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2690,7 +2686,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2701,25 +2697,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2770,19 +2766,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2805,7 +2801,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2816,7 +2812,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>78</v>
@@ -2828,13 +2824,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2885,31 +2881,31 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>78</v>
@@ -2920,11 +2916,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2943,16 +2939,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2990,19 +2986,19 @@
         <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -3014,7 +3010,7 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -3026,7 +3022,7 @@
         <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>78</v>
@@ -3037,7 +3033,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -3048,28 +3044,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3119,19 +3115,19 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>78</v>
@@ -3154,7 +3150,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3165,28 +3161,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3236,19 +3232,19 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>78</v>
@@ -3271,7 +3267,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3282,28 +3278,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3353,19 +3349,19 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -3388,7 +3384,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3408,19 +3404,19 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3470,7 +3466,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3482,7 +3478,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3505,7 +3501,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3513,7 +3509,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>77</v>
@@ -3525,19 +3521,19 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3563,31 +3559,31 @@
         <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
+      <c r="AB11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3599,7 +3595,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3622,41 +3618,41 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="H12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3682,14 +3678,14 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3718,7 +3714,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3741,7 +3737,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3752,7 +3748,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3764,13 +3760,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3821,31 +3817,31 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3856,11 +3852,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3879,16 +3875,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3926,19 +3922,19 @@
         <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3950,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3962,7 +3958,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3973,7 +3969,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3981,34 +3977,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -4018,70 +4014,70 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4092,7 +4088,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4103,28 +4099,28 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4174,31 +4170,31 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4209,7 +4205,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4217,32 +4213,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4291,31 +4287,31 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4326,7 +4322,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4337,29 +4333,29 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -4408,31 +4404,31 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4443,7 +4439,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4454,31 +4450,31 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4527,31 +4523,31 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4562,7 +4558,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4582,19 +4578,19 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4620,31 +4616,31 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4656,7 +4652,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -4679,7 +4675,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4690,28 +4686,28 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4761,19 +4757,19 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4796,7 +4792,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4807,7 +4803,7 @@
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4819,16 +4815,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4854,43 +4850,43 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4913,18 +4909,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4936,16 +4932,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4995,31 +4991,31 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -5030,11 +5026,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -5053,16 +5049,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5112,7 +5108,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -5136,7 +5132,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5147,11 +5143,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5170,16 +5166,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5229,7 +5225,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -5241,7 +5237,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -5253,7 +5249,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5264,11 +5260,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5281,25 +5277,25 @@
         <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -5348,7 +5344,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -5360,7 +5356,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5372,7 +5368,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5383,7 +5379,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5403,20 +5399,20 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -5465,7 +5461,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -5477,22 +5473,22 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5500,11 +5496,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5520,20 +5516,20 @@
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5582,7 +5578,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5594,19 +5590,19 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5617,11 +5613,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5637,19 +5633,19 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5699,7 +5695,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5711,19 +5707,19 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5734,7 +5730,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5742,34 +5738,34 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="H30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5794,56 +5790,56 @@
         <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5851,7 +5847,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5859,13 +5855,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5874,19 +5870,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
@@ -5911,29 +5907,29 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5945,7 +5941,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5957,10 +5953,10 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5968,24 +5964,24 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5993,19 +5989,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -6030,14 +6026,14 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>78</v>
       </c>
@@ -6054,7 +6050,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -6066,7 +6062,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6078,10 +6074,10 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -6089,7 +6085,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6100,7 +6096,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6112,13 +6108,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6169,31 +6165,31 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6204,11 +6200,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6227,16 +6223,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6274,19 +6270,19 @@
         <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB34" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB34" t="s" s="2">
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
+      <c r="AE34" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -6298,7 +6294,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6310,7 +6306,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6321,7 +6317,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6329,34 +6325,34 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6401,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -6417,7 +6413,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6426,10 +6422,10 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6440,7 +6436,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6451,7 +6447,7 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -6463,13 +6459,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6520,31 +6516,31 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6555,11 +6551,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6578,16 +6574,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6625,19 +6621,19 @@
         <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB37" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB37" t="s" s="2">
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
+      <c r="AE37" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6649,7 +6645,7 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6661,7 +6657,7 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6672,7 +6668,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6680,41 +6676,41 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>78</v>
@@ -6756,31 +6752,31 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6791,7 +6787,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6802,28 +6798,28 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6873,31 +6869,31 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6908,7 +6904,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6916,39 +6912,39 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>78</v>
@@ -6990,31 +6986,31 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -7025,7 +7021,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7036,29 +7032,29 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -7107,31 +7103,31 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -7142,7 +7138,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7153,31 +7149,31 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -7226,31 +7222,31 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7261,7 +7257,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7272,31 +7268,31 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -7345,31 +7341,31 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7380,42 +7376,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7440,66 +7436,66 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7510,7 +7506,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7522,13 +7518,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7579,31 +7575,31 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7614,11 +7610,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7637,16 +7633,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7684,19 +7680,19 @@
         <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB46" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB46" t="s" s="2">
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
+      <c r="AE46" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7708,7 +7704,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7720,7 +7716,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7731,7 +7727,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7751,22 +7747,22 @@
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7803,17 +7799,17 @@
         <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7825,7 +7821,7 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7834,10 +7830,10 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7848,44 +7844,44 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7934,7 +7930,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7946,7 +7942,7 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7955,10 +7951,10 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7969,7 +7965,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7980,7 +7976,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7992,13 +7988,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8049,31 +8045,31 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -8084,11 +8080,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -8107,16 +8103,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8154,19 +8150,19 @@
         <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB50" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB50" t="s" s="2">
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
+      <c r="AE50" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -8178,7 +8174,7 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8190,7 +8186,7 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8201,7 +8197,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8209,41 +8205,41 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>78</v>
@@ -8285,31 +8281,31 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8320,7 +8316,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8331,28 +8327,28 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8402,31 +8398,31 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8437,7 +8433,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8445,39 +8441,39 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>78</v>
@@ -8519,31 +8515,31 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8554,7 +8550,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8565,29 +8561,29 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -8636,31 +8632,31 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8671,7 +8667,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8682,31 +8678,31 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8755,31 +8751,31 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8790,7 +8786,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8801,31 +8797,31 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8874,31 +8870,31 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8909,7 +8905,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8917,34 +8913,34 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8993,34 +8989,34 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -9028,7 +9024,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9048,19 +9044,19 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9110,7 +9106,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -9122,7 +9118,7 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9131,13 +9127,13 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -9145,42 +9141,42 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J59" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -9229,34 +9225,34 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AK59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9264,42 +9260,42 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -9348,34 +9344,34 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AI60" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AI60" t="s" s="2">
+      <c r="AJ60" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9383,7 +9379,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9394,28 +9390,28 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9465,19 +9461,19 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9486,13 +9482,13 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9500,7 +9496,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9520,20 +9516,20 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9582,7 +9578,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -9594,22 +9590,22 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9617,7 +9613,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9628,31 +9624,31 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9689,55 +9685,55 @@
         <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AB63" s="2"/>
       <c r="AC63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH63" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH63" t="s" s="2">
+      <c r="AI63" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AI63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>78</v>
@@ -9747,31 +9743,31 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9820,42 +9816,42 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9866,7 +9862,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9878,13 +9874,13 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9935,31 +9931,31 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9970,11 +9966,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9993,16 +9989,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10040,19 +10036,19 @@
         <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AB66" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AB66" t="s" s="2">
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AC66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD66" t="s" s="2">
+      <c r="AE66" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -10064,7 +10060,7 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -10076,7 +10072,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10087,7 +10083,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10095,34 +10091,34 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J67" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -10171,31 +10167,31 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10206,7 +10202,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10217,104 +10213,104 @@
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P68" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="O68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P68" t="s" s="2">
+      <c r="Q68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="X68" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="X68" t="s" s="2">
+      <c r="Y68" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
+      <c r="AF68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10325,7 +10321,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10333,32 +10329,32 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -10407,31 +10403,31 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10442,7 +10438,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10450,105 +10446,105 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G70" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
+      <c r="AF70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH70" t="s" s="2">
+      <c r="AI70" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10559,7 +10555,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10567,34 +10563,34 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G71" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10619,55 +10615,55 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
+      <c r="AF71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10678,7 +10674,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10689,11 +10685,11 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G72" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10701,19 +10697,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10738,55 +10734,55 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH72" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH72" t="s" s="2">
+      <c r="AI72" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10797,11 +10793,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10820,19 +10816,19 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10857,14 +10853,14 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10881,7 +10877,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10893,30 +10889,30 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>480</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10939,19 +10935,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -11000,7 +10996,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -11012,7 +11008,7 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -11021,10 +11017,10 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -11035,7 +11031,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11046,7 +11042,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -11058,16 +11054,16 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11093,66 +11089,66 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AL75" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>498</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11163,7 +11159,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -11175,19 +11171,19 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -11212,55 +11208,55 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11271,7 +11267,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11282,7 +11278,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -11294,16 +11290,16 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11353,42 +11349,42 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11399,7 +11395,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11411,16 +11407,16 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11470,42 +11466,42 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO78" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11528,19 +11524,19 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -11589,7 +11585,7 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -11601,19 +11597,19 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11624,7 +11620,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11635,7 +11631,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11647,13 +11643,13 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11704,31 +11700,31 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11739,11 +11735,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11762,16 +11758,16 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11821,7 +11817,7 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -11833,7 +11829,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11845,7 +11841,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11856,11 +11852,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11873,25 +11869,25 @@
         <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11940,7 +11936,7 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -11952,7 +11948,7 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
@@ -11964,7 +11960,7 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11975,7 +11971,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11986,7 +11982,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11998,13 +11994,13 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12055,31 +12051,31 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH83" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AI83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -12090,7 +12086,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12101,7 +12097,7 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -12113,13 +12109,13 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12170,31 +12166,31 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH84" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AI84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="AM84" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12205,7 +12201,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12216,7 +12212,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -12228,19 +12224,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -12265,55 +12261,55 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="Y85" t="s" s="2">
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="AM85" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12324,7 +12320,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12347,19 +12343,19 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>78</v>
@@ -12384,14 +12380,14 @@
         <v>78</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>568</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12408,7 +12404,7 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -12420,19 +12416,19 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="AL86" t="s" s="2">
-        <v>561</v>
-      </c>
       <c r="AM86" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12443,7 +12439,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12454,7 +12450,7 @@
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -12466,17 +12462,17 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>78</v>
@@ -12525,19 +12521,19 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12549,7 +12545,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12560,7 +12556,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12571,7 +12567,7 @@
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
@@ -12583,13 +12579,13 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12640,19 +12636,19 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12661,10 +12657,10 @@
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12675,7 +12671,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12695,19 +12691,19 @@
         <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12757,7 +12753,7 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -12769,7 +12765,7 @@
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12778,10 +12774,10 @@
         <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12792,7 +12788,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12812,19 +12808,19 @@
         <v>78</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12874,7 +12870,7 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -12886,7 +12882,7 @@
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12895,10 +12891,10 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12909,7 +12905,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12923,28 +12919,28 @@
         <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
@@ -12993,7 +12989,7 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -13005,19 +13001,19 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AJ91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -13028,7 +13024,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13039,7 +13035,7 @@
         <v>76</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>78</v>
@@ -13051,13 +13047,13 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13108,31 +13104,31 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -13143,11 +13139,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13166,16 +13162,16 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13225,7 +13221,7 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -13237,7 +13233,7 @@
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13249,7 +13245,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13260,11 +13256,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13277,25 +13273,25 @@
         <v>78</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="M94" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>78</v>
@@ -13344,7 +13340,7 @@
         <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>76</v>
@@ -13356,7 +13352,7 @@
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13368,7 +13364,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13379,7 +13375,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13387,34 +13383,34 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G95" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J95" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>78</v>
@@ -13439,14 +13435,14 @@
         <v>78</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Y95" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="Z95" t="s" s="2">
         <v>78</v>
       </c>
@@ -13463,34 +13459,34 @@
         <v>78</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>78</v>
@@ -13498,7 +13494,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13509,31 +13505,31 @@
         <v>76</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G96" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G96" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M96" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="N96" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>78</v>
@@ -13558,66 +13554,66 @@
         <v>78</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="Y96" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="Y96" t="s" s="2">
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH96" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="Z96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH96" t="s" s="2">
+      <c r="AI96" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AI96" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>616</v>
-      </c>
       <c r="AL96" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO96" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13628,11 +13624,11 @@
         <v>76</v>
       </c>
       <c r="F97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G97" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G97" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13640,19 +13636,19 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>78</v>
@@ -13677,14 +13673,14 @@
         <v>78</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13701,19 +13697,19 @@
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13722,10 +13718,10 @@
         <v>78</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13736,11 +13732,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13759,19 +13755,19 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>78</v>
@@ -13796,14 +13792,14 @@
         <v>78</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X98" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Y98" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="Y98" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="Z98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13820,7 +13816,7 @@
         <v>78</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>76</v>
@@ -13832,30 +13828,30 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK98" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AL98" t="s" s="2">
+      <c r="AM98" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO98" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>480</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13881,16 +13877,16 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="L99" t="s" s="2">
-        <v>625</v>
-      </c>
       <c r="M99" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>78</v>
@@ -13939,7 +13935,7 @@
         <v>78</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>76</v>
@@ -13951,7 +13947,7 @@
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13960,10 +13956,10 @@
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ms-height-observation.xlsx
+++ b/docs/StructureDefinition-ms-height-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
